--- a/csv_files/data_gathering/FoneFridge_popular_items_library.xlsx
+++ b/csv_files/data_gathering/FoneFridge_popular_items_library.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\FKIN IMPORTANT\-6-\HCI 584x\project\FoneFridge_HCI584\csv_files\data_gathering\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDFE2F8D-D78A-419B-85E0-0E0D8FBB81D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28B2BF4A-14C8-4378-BAE1-412AD418904C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15796" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15796" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Popular Items" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="43">
   <si>
     <t>title</t>
   </si>
@@ -44,54 +44,9 @@
     <t>onion</t>
   </si>
   <si>
-    <t>TYPES</t>
-  </si>
-  <si>
-    <t>bewerage</t>
-  </si>
-  <si>
-    <t>meat</t>
-  </si>
-  <si>
-    <t>seafood</t>
-  </si>
-  <si>
-    <t>dairy&amp;eggs</t>
-  </si>
-  <si>
-    <t>fruits</t>
-  </si>
-  <si>
-    <t>vegetables</t>
-  </si>
-  <si>
-    <t>snacks</t>
-  </si>
-  <si>
-    <t>bakery</t>
-  </si>
-  <si>
-    <t>canned</t>
-  </si>
-  <si>
-    <t>boxed meal</t>
-  </si>
-  <si>
-    <t>pickle</t>
-  </si>
-  <si>
-    <t>grains</t>
-  </si>
-  <si>
-    <t>herbs&amp;spices</t>
-  </si>
-  <si>
     <t>lettuce</t>
   </si>
   <si>
-    <t>root vegetables</t>
-  </si>
-  <si>
     <t>beef</t>
   </si>
   <si>
@@ -131,9 +86,6 @@
     <t>beans</t>
   </si>
   <si>
-    <t>dressings</t>
-  </si>
-  <si>
     <t>mayonnaise</t>
   </si>
   <si>
@@ -156,6 +108,51 @@
   </si>
   <si>
     <t>dried basil</t>
+  </si>
+  <si>
+    <t>Bewerage</t>
+  </si>
+  <si>
+    <t>Meat</t>
+  </si>
+  <si>
+    <t>Seafood</t>
+  </si>
+  <si>
+    <t>Dairy_Eggs</t>
+  </si>
+  <si>
+    <t>Fruits</t>
+  </si>
+  <si>
+    <t>Root_Vegetables</t>
+  </si>
+  <si>
+    <t>Vegetables</t>
+  </si>
+  <si>
+    <t>Snacks</t>
+  </si>
+  <si>
+    <t>Bakery</t>
+  </si>
+  <si>
+    <t>Canned</t>
+  </si>
+  <si>
+    <t>Dressings</t>
+  </si>
+  <si>
+    <t>Grains</t>
+  </si>
+  <si>
+    <t>Boxed_Meal</t>
+  </si>
+  <si>
+    <t>Pickles</t>
+  </si>
+  <si>
+    <t>Herbs_Spices</t>
   </si>
 </sst>
 </file>
@@ -459,8 +456,8 @@
   </sheetPr>
   <dimension ref="A1:D25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="201" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView topLeftCell="A9" zoomScale="201" workbookViewId="0">
+      <selection activeCell="B9" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.3984375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -479,18 +476,18 @@
         <v>1</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="6" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="C2" s="3">
         <v>3</v>
@@ -501,10 +498,10 @@
     </row>
     <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="6" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="C3" s="3">
         <v>3</v>
@@ -515,10 +512,10 @@
     </row>
     <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="6" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="C4" s="3">
         <v>3</v>
@@ -529,10 +526,10 @@
     </row>
     <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="6" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="C5" s="3">
         <v>1</v>
@@ -543,10 +540,10 @@
     </row>
     <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" s="6" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="C6" s="3">
         <v>1</v>
@@ -557,10 +554,10 @@
     </row>
     <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" s="7" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="C7" s="8">
         <v>2</v>
@@ -574,7 +571,7 @@
         <v>2</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="C8" s="8">
         <v>5</v>
@@ -588,7 +585,7 @@
         <v>4</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="C9" s="8">
         <v>5</v>
@@ -599,10 +596,10 @@
     </row>
     <row r="10" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A10" s="7" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="C10" s="8">
         <v>5</v>
@@ -613,10 +610,10 @@
     </row>
     <row r="11" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A11" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="C11" s="8">
         <v>1</v>
@@ -627,10 +624,10 @@
     </row>
     <row r="12" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A12" s="7" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="C12" s="8">
         <v>3</v>
@@ -644,7 +641,7 @@
         <v>3</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="C13" s="8">
         <v>3</v>
@@ -655,10 +652,10 @@
     </row>
     <row r="14" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A14" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="C14" s="8">
         <v>5</v>
@@ -672,7 +669,7 @@
         <v>5</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="C15" s="8">
         <v>5</v>
@@ -683,10 +680,10 @@
     </row>
     <row r="16" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A16" s="7" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="C16" s="8">
         <v>3</v>
@@ -697,10 +694,10 @@
     </row>
     <row r="17" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A17" s="7" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="C17" s="8">
         <v>2</v>
@@ -711,10 +708,10 @@
     </row>
     <row r="18" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A18" s="7" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="C18" s="8">
         <v>2</v>
@@ -725,10 +722,10 @@
     </row>
     <row r="19" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A19" s="7" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="C19" s="8">
         <v>2</v>
@@ -739,10 +736,10 @@
     </row>
     <row r="20" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A20" s="7" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="C20" s="8">
         <v>2</v>
@@ -753,10 +750,10 @@
     </row>
     <row r="21" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A21" s="7" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C21" s="8">
         <v>10</v>
@@ -767,10 +764,10 @@
     </row>
     <row r="22" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A22" s="7" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="C22" s="8">
         <v>2</v>
@@ -781,10 +778,10 @@
     </row>
     <row r="23" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A23" s="7" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="C23" s="8">
         <v>2</v>
@@ -795,10 +792,10 @@
     </row>
     <row r="24" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A24" s="7" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="C24" s="8">
         <v>5</v>
@@ -809,10 +806,10 @@
     </row>
     <row r="25" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A25" s="7" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="C25" s="8">
         <v>10</v>
@@ -829,78 +826,162 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F76BE4DA-B266-479C-8E04-DB2CED3C55E3}">
-  <dimension ref="A1:P6"/>
+  <dimension ref="A1:P25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A46" sqref="A46"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="28.06640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.73046875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20.3984375" customWidth="1"/>
     <col min="4" max="4" width="22.1328125" customWidth="1"/>
     <col min="5" max="5" width="18.53125" customWidth="1"/>
     <col min="7" max="7" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="L1" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A2" s="7"/>
+    <row r="1" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="A1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+    </row>
+    <row r="2" spans="1:16" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="A2" s="6" t="s">
+        <v>28</v>
+      </c>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A6" s="7"/>
+    <row r="3" spans="1:16" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="A3" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="A4" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="A5" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="A6" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="A7" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="A8" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="A9" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="A10" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="A11" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="A12" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="A13" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="A14" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="A15" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="A16" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="A17" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="A18" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="A19" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="A20" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="A21" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="A22" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="A23" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="A24" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="A25" s="2" t="s">
+        <v>42</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
